--- a/medicine/Enfance/Anne_Fine/Anne_Fine.xlsx
+++ b/medicine/Enfance/Anne_Fine/Anne_Fine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anne Fine  est une autrice britannique, principalement spécialisée dans la littérature jeunesse, née le 7 décembre 1947 à Leicester, en Angleterre.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Anne Fine grandit avec ses quatre sœurs (dont des triplées) entre Londres et Birmingham.
 Anne Fine fait ses études dans des écoles de filles. Elle étudie le français, l'espagnol ainsi que l'histoire, délaissant un moment la langue anglaise. 
-Anne et son ex-mari Kit Fine, philosophe, ont en 1971 leur première fille, Lone, puis en 1975 leur deuxième fille, Cordelia Fine. Elle fait des études de sciences politiques aux États-Unis[1].
+Anne et son ex-mari Kit Fine, philosophe, ont en 1971 leur première fille, Lone, puis en 1975 leur deuxième fille, Cordelia Fine. Elle fait des études de sciences politiques aux États-Unis.
 Anne a publié de nombreux romans, destinés aussi bien aux adultes qu'aux enfants.
 Elle obtient de nombreux prix de littérature.
 </t>
@@ -546,12 +560,14 @@
           <t>Œuvre littéraire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Anne Fine écrit pour les enfants et les adolescents.  Elle publie en 1980 La Nouvelle Robe de Bill, roman dans lequel elle traite du sexisme à l'école primaire[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anne Fine écrit pour les enfants et les adolescents.  Elle publie en 1980 La Nouvelle Robe de Bill, roman dans lequel elle traite du sexisme à l'école primaire.
 La série Le Chat assassin débute en 1996. Neuf romans de la série sont publiés jusqu'au début des années 2020.
-Dans Blood Family, roman pour adolescent, elle raconte l'histoire d'un enfant séquestré qui vit de foyer en foyer. Pour cette histoire, Anne Fine s'inspire de la Children Act 1989, loi britannique de 1989 qui permettait l'adoption d'un enfant dès que les services sociaux soupçonnaient une maltraitance ou une défaillance parentale. Cette loi aurait été abandonnée en 2013[1], alors qu’elle est toujours en vigueur.
-Ses ouvrages sont traduits en plusieurs langues, dont  Madame Doubtfire, publié en français en 1987 sous le titre Quand papa était femme de ménage[1].
+Dans Blood Family, roman pour adolescent, elle raconte l'histoire d'un enfant séquestré qui vit de foyer en foyer. Pour cette histoire, Anne Fine s'inspire de la Children Act 1989, loi britannique de 1989 qui permettait l'adoption d'un enfant dès que les services sociaux soupçonnaient une maltraitance ou une défaillance parentale. Cette loi aurait été abandonnée en 2013, alors qu’elle est toujours en vigueur.
+Ses ouvrages sont traduits en plusieurs langues, dont  Madame Doubtfire, publié en français en 1987 sous le titre Quand papa était femme de ménage.
 </t>
         </is>
       </c>
@@ -580,7 +596,9 @@
           <t>Ouvrages et traductions en français</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve"> Série Le Chat assassin  , illustrations de Véronique Deiss.
 Journal d'un Chat assassin, 1996
@@ -629,8 +647,13 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Prix
-Prix Sorcières 2015, cat. romans adolescents
+          <t>Prix</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Prix Sorcières 2015, cat. romans adolescents
 Le Passage du diable (trad. de The devil walks)
 Fellow of the Royal Society of Literature (2003)
 Children's Laureate 2001-2003
@@ -652,9 +675,43 @@
 Twice British Book Awards Children's Author of the Year
 in 1990 and 1993
 Carnegie Medal 1990 and Guardian Fiction Award 1990
-for Goggle Eyes
-Récompenses par ouvrage
-Le Passage du diable (trad. de The devil walks)
+for Goggle Eyes</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Anne_Fine</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anne_Fine</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Prix et distinctions</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Récompenses par ouvrage</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Le Passage du diable (trad. de The devil walks)
 Prix Sorcières 2015, cat. romans adolescents
 Ivan the Terrible
 Silver medal in the 2007 Nestlé Children's Book awards
@@ -729,9 +786,43 @@
 The Granny Project
 Shortlisted for Guardian Children's Fiction Award 1984
 The Summer House Loon
-Runner-up Kestrel/Guardian Competition 1975
-Distinctions honorifiques
-Degree of Doctor of Letters
+Runner-up Kestrel/Guardian Competition 1975</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Anne_Fine</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anne_Fine</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Prix et distinctions</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Distinctions honorifiques</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Degree of Doctor of Letters
 The University of Teesside, 23 novembre 2007
 Degree of Doctor of Letters honoris causa
 The University of Warwick, 12 juillet 2008
